--- a/improvement/task_list.xlsx
+++ b/improvement/task_list.xlsx
@@ -5,18 +5,18 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="interview preparation" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Embedded C interview" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
   <si>
     <t>Sr No</t>
   </si>
@@ -60,6 +60,24 @@
     <t>Salve C++ quiz</t>
   </si>
   <si>
+    <t>Communication protocol</t>
+  </si>
+  <si>
+    <t>List protocols</t>
+  </si>
+  <si>
+    <t>spi</t>
+  </si>
+  <si>
+    <t>i2c</t>
+  </si>
+  <si>
+    <t>modbus</t>
+  </si>
+  <si>
+    <t>Z-wave</t>
+  </si>
+  <si>
     <t>Linux os concepts</t>
   </si>
   <si>
@@ -75,6 +93,21 @@
     <t>scheduling</t>
   </si>
   <si>
+    <t>Shell programming</t>
+  </si>
+  <si>
+    <t>Linux OS programming </t>
+  </si>
+  <si>
+    <t>init service</t>
+  </si>
+  <si>
+    <t>upstart service</t>
+  </si>
+  <si>
+    <t>cron job</t>
+  </si>
+  <si>
     <t>Linux tools </t>
   </si>
   <si>
@@ -87,37 +120,7 @@
     <t>valgind</t>
   </si>
   <si>
-    <t>Shell programming</t>
-  </si>
-  <si>
-    <t>Linux OS programming </t>
-  </si>
-  <si>
-    <t>init service</t>
-  </si>
-  <si>
-    <t>upstart service</t>
-  </si>
-  <si>
-    <t>cron job</t>
-  </si>
-  <si>
-    <t>Communication protocol</t>
-  </si>
-  <si>
-    <t>List protocols</t>
-  </si>
-  <si>
-    <t>spi</t>
-  </si>
-  <si>
-    <t>i2c</t>
-  </si>
-  <si>
-    <t>modbus</t>
-  </si>
-  <si>
-    <t>Z-wave</t>
+    <t>Linux porting</t>
   </si>
   <si>
     <t>Linux rootfs</t>
@@ -130,6 +133,93 @@
   </si>
   <si>
     <t>Linaro</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>macro and inline functions</t>
+  </si>
+  <si>
+    <t>Advantage &amp; disadvantages</t>
+  </si>
+  <si>
+    <t>Macros and Inline functions are efficient than calling a normal function. The times spend in calling the function is saved in case of macros and inline functions as these are included directly into the code. Macros and inline functions increased the size of executable code.
+</t>
+  </si>
+  <si>
+    <t>difference between macros and inline function</t>
+  </si>
+  <si>
+    <t>The macro are just symbolic representations and cannot contain data type differentiations within the parameters that we give. The in line functions can have the data types too defined as a part of them. The disadvantage in using both is that the inclusion of condition checks may lead to increase in code space if the function is called many times.</t>
+  </si>
+  <si>
+    <t>ISR</t>
+  </si>
+  <si>
+    <t>properties</t>
+  </si>
+  <si>
+    <t>No return &amp; argument, avoid sleep.</t>
+  </si>
+  <si>
+    <t>how to reduce interrupt latency??</t>
+  </si>
+  <si>
+    <t>Interrupt latency is the time required to return from the interrupt service routine after tackling a particular interrupt. We can reduce it by writing smaller ISR routines.</t>
+  </si>
+  <si>
+    <t>malloc</t>
+  </si>
+  <si>
+    <t>used to dynamic memory allocation, return pointer of void, should be cleaned by free (). </t>
+  </si>
+  <si>
+    <t>volatile</t>
+  </si>
+  <si>
+    <t>const volatile</t>
+  </si>
+  <si>
+    <t>Const and volatile keywords should not be used together because both are opposite in nature.
+A variable is declared as “const” means it’s value is not able to be changed but if it is declared as “Volatile” then it is not under control. </t>
+  </si>
+  <si>
+    <t>A variable should be declared volatile whenever its value could change unexpectedly. In practice, only three types of variables could change:
+? Memory-mapped peripheral registers
+? Global variables modified by an interrupt service routine
+? Global variables within a multi-threaded application</t>
+  </si>
+  <si>
+    <t>The volatile keyword is used to represent variables that point to memory in other mapped devices. In such a case the value of the variable can be changed outside of a program. The compiler does not do additional optimizations to the code if there is volatile keyword.</t>
+  </si>
+  <si>
+    <t>recursive</t>
+  </si>
+  <si>
+    <t>recursive declared as inline</t>
+  </si>
+  <si>
+    <t>Inline functions property says whenever it will called, it will copy the complete definition of that function. Recursive function declared as inline creates the burden on the compilers execution.
+The size of the stack may/may not be overflow if the function size is big.</t>
+  </si>
+  <si>
+    <t>memory</t>
+  </si>
+  <si>
+    <t>storage classes</t>
+  </si>
+  <si>
+    <t>auto, register, static, extern or global</t>
   </si>
 </sst>
 </file>
@@ -139,11 +229,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -159,6 +250,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -181,26 +279,92 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <i val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFEEEEEE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -229,7 +393,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -238,16 +402,136 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -259,6 +543,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFEEEEEE"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -267,10 +611,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:G36"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -278,274 +622,368 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="24.4948979591837"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="34.0357142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="18.0612244897959"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="21.8163265306122"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="20.6989795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="18.0612244897959"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="21.8163265306122"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="20.6989795918367"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="22.6428571428571"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="2" width="11.5204081632653"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0"/>
+      <c r="B1" s="0"/>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+      <c r="G1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0"/>
+      <c r="B2" s="0"/>
+      <c r="C2" s="0"/>
+      <c r="D2" s="0"/>
+      <c r="E2" s="0"/>
+      <c r="F2" s="0"/>
+      <c r="G2" s="0"/>
+    </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="0"/>
+      <c r="D4" s="0"/>
+      <c r="E4" s="0"/>
+      <c r="F4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="D5" s="0"/>
+      <c r="E5" s="0"/>
+      <c r="F5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="0"/>
+      <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="D6" s="0"/>
+      <c r="E6" s="0"/>
+      <c r="F6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="2" t="s">
+      <c r="A7" s="0"/>
+      <c r="B7" s="0"/>
+      <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
+      <c r="A8" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0"/>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="0"/>
+      <c r="C9" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0"/>
       <c r="B10" s="0"/>
       <c r="C10" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="C11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="0"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0"/>
-      <c r="B12" s="0"/>
-      <c r="C12" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="0"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0"/>
-      <c r="B13" s="0"/>
-      <c r="C13" s="0" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="0"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0"/>
-      <c r="B14" s="0"/>
-      <c r="C14" s="0" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="0"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0"/>
-      <c r="B15" s="0"/>
-      <c r="C15" s="0" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="0"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0"/>
-      <c r="B16" s="0"/>
-      <c r="C16" s="0"/>
-      <c r="D16" s="0"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0"/>
-      <c r="B17" s="0"/>
-      <c r="C17" s="0"/>
-      <c r="D17" s="0"/>
+      <c r="A17" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A18" s="0"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0"/>
-      <c r="B19" s="0"/>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0"/>
-      <c r="B20" s="0"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="0" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0"/>
-      <c r="B21" s="0"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="0" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+      <c r="A22" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="B23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="A24" s="0"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="A25" s="0"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="A26" s="0"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>29</v>
+      <c r="B27" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="2" t="s">
+      <c r="A28" s="0"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="2" t="s">
-        <v>30</v>
+      <c r="A29" s="0"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="2" t="s">
-        <v>31</v>
+      <c r="A30" s="0"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="2" t="s">
-        <v>32</v>
+      <c r="A31" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="2" t="s">
-        <v>33</v>
+      <c r="A32" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+      <c r="C33" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="2" t="s">
-        <v>9</v>
+      <c r="C34" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="2" t="s">
-        <v>37</v>
+      <c r="C35" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -564,20 +1002,235 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A3:E24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="9" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="22.6887755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="52.6581632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="12" width="114.627551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="13" width="11.5204081632653"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="20"/>
+    </row>
+    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="20"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="21"/>
+      <c r="B6" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="24"/>
+    </row>
+    <row r="10" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="24"/>
+    </row>
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="24"/>
+    </row>
+    <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="20"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="29"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="30"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="34"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="34"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="30"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="34"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="30"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="34"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="30"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="34"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="30"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="34"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="30"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="30"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="34"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="30"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="34"/>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
